--- a/DE_PCS_031_02_XXXX_SPSX_Visu Checkliste.xlsx
+++ b/DE_PCS_031_02_XXXX_SPSX_Visu Checkliste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\_Departments\RB\95 Team IH\95.01 Mitarbeiter\Zöldi Máté\VISU check\MFA2 Z3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NorbertBalazs\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C900B6-D6FC-4D17-ADBB-94B7D4FCDF7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1968ECD8-FAA7-4976-974B-9CCF1D35807B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11535" yWindow="-15870" windowWidth="25440" windowHeight="15270" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4680" yWindow="4680" windowWidth="28800" windowHeight="17100" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Deckblatt" sheetId="1" r:id="rId1"/>
@@ -18,11 +18,11 @@
     <sheet name="Visu-Detail" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">Checkpunkte!$1:$1</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">'Visu-Detail'!$1:$1</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Checkpunkte!$A$1:$I$46</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Deckblatt!$A$1:$F$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Visu-Detail'!$A$1:$I$26</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">Checkpunkte!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'Visu-Detail'!$1:$1</definedName>
     <definedName name="Z_0EC31964_7D8D_4BDE_8009_CF9A4B6C8E41_.wvu.FilterData" localSheetId="1">Checkpunkte!$C$1:$D$30</definedName>
     <definedName name="Z_0EC31964_7D8D_4BDE_8009_CF9A4B6C8E41_.wvu.PrintArea" localSheetId="1">Checkpunkte!$A$1:$I$46</definedName>
     <definedName name="Z_0EC31964_7D8D_4BDE_8009_CF9A4B6C8E41_.wvu.PrintArea" localSheetId="0">Deckblatt!$A$1:$F$28</definedName>
@@ -738,7 +738,7 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1205,6 +1205,14 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1214,20 +1222,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2498,7 +2498,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2816,42 +2816,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="C11" sqref="C11:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82"/>
+    <row r="1" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A1" s="86"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82"/>
-    </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="83" t="s">
+    <row r="2" spans="1:6" ht="29.25" customHeight="1">
+      <c r="A2" s="86"/>
+    </row>
+    <row r="3" spans="1:6" s="5" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A3" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-    </row>
-    <row r="5" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84" t="s">
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+    </row>
+    <row r="5" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A5" s="88" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2868,15 +2868,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="84"/>
+    <row r="6" spans="1:6" ht="29.25" customHeight="1">
+      <c r="A6" s="88"/>
       <c r="B6" s="3"/>
       <c r="C6" s="6"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="25.5">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -2886,7 +2886,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="25.5">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -2896,95 +2896,95 @@
       <c r="E8" s="3"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="85" t="s">
+    <row r="10" spans="1:6" ht="15" customHeight="1">
+      <c r="A10" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="85"/>
-      <c r="C10" s="85" t="s">
+      <c r="B10" s="82"/>
+      <c r="C10" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="85"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-    </row>
-    <row r="11" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="85" t="s">
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+    </row>
+    <row r="11" spans="1:6" ht="38.25" customHeight="1">
+      <c r="A11" s="82" t="s">
         <v>166</v>
       </c>
-      <c r="B11" s="85"/>
-      <c r="C11" s="85" t="s">
+      <c r="B11" s="82"/>
+      <c r="C11" s="82" t="s">
         <v>167</v>
       </c>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="85" t="s">
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="85"/>
-      <c r="C12" s="85" t="s">
+      <c r="B12" s="82"/>
+      <c r="C12" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="85"/>
-      <c r="E12" s="85" t="s">
+      <c r="D12" s="82"/>
+      <c r="E12" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="85"/>
-    </row>
-    <row r="13" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="85" t="s">
+      <c r="F12" s="82"/>
+    </row>
+    <row r="13" spans="1:6" ht="37.5" customHeight="1">
+      <c r="A13" s="82" t="s">
         <v>160</v>
       </c>
-      <c r="B13" s="85"/>
-      <c r="C13" s="85" t="s">
+      <c r="B13" s="82"/>
+      <c r="C13" s="82" t="s">
         <v>161</v>
       </c>
-      <c r="D13" s="85"/>
-      <c r="E13" s="86" t="s">
+      <c r="D13" s="82"/>
+      <c r="E13" s="84" t="s">
         <v>162</v>
       </c>
-      <c r="F13" s="86"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="85" t="s">
+      <c r="F13" s="84"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="82" t="s">
         <v>163</v>
       </c>
-      <c r="B14" s="85"/>
-      <c r="C14" s="85" t="s">
+      <c r="B14" s="82"/>
+      <c r="C14" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="85"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="85"/>
-    </row>
-    <row r="15" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="85" t="s">
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+    </row>
+    <row r="15" spans="1:6" ht="39" customHeight="1">
+      <c r="A15" s="82" t="s">
         <v>164</v>
       </c>
-      <c r="B15" s="85"/>
-      <c r="C15" s="87" t="s">
+      <c r="B15" s="82"/>
+      <c r="C15" s="83" t="s">
         <v>165</v>
       </c>
-      <c r="D15" s="85"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="86"/>
-    </row>
-    <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="88" t="s">
+      <c r="D15" s="82"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="84"/>
+    </row>
+    <row r="17" spans="1:6" ht="19.5" customHeight="1">
+      <c r="A17" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="88"/>
-      <c r="C17" s="88"/>
-      <c r="D17" s="88" t="s">
+      <c r="B17" s="85"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="88"/>
-      <c r="F17" s="88"/>
-    </row>
-    <row r="18" spans="1:6" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
+    </row>
+    <row r="18" spans="1:6" ht="6.75" customHeight="1">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
       <c r="C18" s="10"/>
@@ -2992,7 +2992,7 @@
       <c r="E18" s="9"/>
       <c r="F18" s="10"/>
     </row>
-    <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="19.5" customHeight="1">
       <c r="A19" s="11" t="s">
         <v>15</v>
       </c>
@@ -3003,7 +3003,7 @@
       <c r="D19" s="13"/>
       <c r="F19" s="14"/>
     </row>
-    <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="19.5" customHeight="1">
       <c r="A20" s="11" t="s">
         <v>17</v>
       </c>
@@ -3014,7 +3014,7 @@
       <c r="D20" s="13"/>
       <c r="F20" s="14"/>
     </row>
-    <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="19.5" customHeight="1">
       <c r="A21" s="11" t="s">
         <v>19</v>
       </c>
@@ -3027,7 +3027,7 @@
       </c>
       <c r="F21" s="14"/>
     </row>
-    <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="19.5" customHeight="1">
       <c r="A22" s="11" t="s">
         <v>22</v>
       </c>
@@ -3040,7 +3040,7 @@
       </c>
       <c r="F22" s="14"/>
     </row>
-    <row r="23" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="19.5" customHeight="1">
       <c r="A23" s="11" t="s">
         <v>25</v>
       </c>
@@ -3053,7 +3053,7 @@
       </c>
       <c r="F23" s="14"/>
     </row>
-    <row r="24" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="19.5" customHeight="1">
       <c r="A24" s="11" t="s">
         <v>28</v>
       </c>
@@ -3064,21 +3064,21 @@
       <c r="D24" s="13"/>
       <c r="F24" s="14"/>
     </row>
-    <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="19.5" customHeight="1">
       <c r="A25" s="11"/>
       <c r="B25" s="4"/>
       <c r="C25" s="12"/>
       <c r="D25" s="13"/>
       <c r="F25" s="14"/>
     </row>
-    <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="19.5" customHeight="1">
       <c r="A26" s="11"/>
       <c r="B26" s="4"/>
       <c r="C26" s="12"/>
       <c r="D26" s="13"/>
       <c r="F26" s="14"/>
     </row>
-    <row r="27" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="18.75" customHeight="1">
       <c r="A27" s="11" t="s">
         <v>30</v>
       </c>
@@ -3087,32 +3087,32 @@
       <c r="E27" s="17"/>
       <c r="F27" s="15"/>
     </row>
-    <row r="28" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:6" ht="37.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="E14:F14"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.59027777777777801" right="0.39374999999999999" top="0.59027777777777801" bottom="0.66944444444444395" header="0.511811023622047" footer="0.27569444444444402"/>
@@ -3134,21 +3134,21 @@
       <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" style="18" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="18" customWidth="1"/>
     <col min="2" max="2" width="62" style="19" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" style="20" customWidth="1"/>
-    <col min="4" max="5" width="9.33203125" style="21" customWidth="1"/>
-    <col min="6" max="6" width="63.88671875" style="21" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" style="20" customWidth="1"/>
+    <col min="4" max="5" width="9.28515625" style="21" customWidth="1"/>
+    <col min="6" max="6" width="63.85546875" style="21" customWidth="1"/>
     <col min="7" max="7" width="9" style="20" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" style="21" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" style="18" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="21" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="18" customWidth="1"/>
     <col min="10" max="10" width="11" style="22" customWidth="1"/>
-    <col min="11" max="1024" width="11.44140625" style="18"/>
+    <col min="11" max="1024" width="11.42578125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="35.25" customHeight="1">
       <c r="A1" s="23" t="s">
         <v>31</v>
       </c>
@@ -3177,7 +3177,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="32" customFormat="1" ht="18">
       <c r="A2" s="26"/>
       <c r="B2" s="27" t="s">
         <v>40</v>
@@ -3200,7 +3200,7 @@
       </c>
       <c r="J2" s="31"/>
     </row>
-    <row r="3" spans="1:10" s="39" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="39" customFormat="1" ht="15.75">
       <c r="A3" s="33"/>
       <c r="B3" s="34" t="s">
         <v>41</v>
@@ -3223,7 +3223,7 @@
       </c>
       <c r="J3" s="38"/>
     </row>
-    <row r="4" spans="1:10" s="39" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="39" customFormat="1" ht="15.75">
       <c r="A4" s="40"/>
       <c r="B4" s="34" t="s">
         <v>42</v>
@@ -3248,7 +3248,7 @@
       </c>
       <c r="J4" s="38"/>
     </row>
-    <row r="5" spans="1:10" s="46" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="46" customFormat="1" ht="15.75">
       <c r="A5" s="41" t="s">
         <v>44</v>
       </c>
@@ -3264,7 +3264,7 @@
       <c r="I5" s="43"/>
       <c r="J5" s="45"/>
     </row>
-    <row r="6" spans="1:10" s="46" customFormat="1" ht="261.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="46" customFormat="1" ht="261.75" customHeight="1">
       <c r="A6" s="47" t="s">
         <v>46</v>
       </c>
@@ -3290,7 +3290,7 @@
       </c>
       <c r="J6" s="45"/>
     </row>
-    <row r="7" spans="1:10" s="46" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="46" customFormat="1" ht="18.75" customHeight="1">
       <c r="A7" s="47" t="s">
         <v>48</v>
       </c>
@@ -3314,7 +3314,7 @@
       </c>
       <c r="J7" s="45"/>
     </row>
-    <row r="8" spans="1:10" s="46" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="46" customFormat="1" ht="55.5" customHeight="1">
       <c r="A8" s="47" t="s">
         <v>50</v>
       </c>
@@ -3338,7 +3338,7 @@
       </c>
       <c r="J8" s="45"/>
     </row>
-    <row r="9" spans="1:10" s="46" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="46" customFormat="1" ht="15.75">
       <c r="A9" s="52" t="s">
         <v>52</v>
       </c>
@@ -3356,7 +3356,7 @@
       <c r="I9" s="44"/>
       <c r="J9" s="45"/>
     </row>
-    <row r="10" spans="1:10" s="46" customFormat="1" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="46" customFormat="1" ht="120.75" customHeight="1">
       <c r="A10" s="47" t="s">
         <v>54</v>
       </c>
@@ -3380,7 +3380,7 @@
       </c>
       <c r="J10" s="45"/>
     </row>
-    <row r="11" spans="1:10" s="46" customFormat="1" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" s="46" customFormat="1" ht="60">
       <c r="A11" s="47" t="s">
         <v>56</v>
       </c>
@@ -3404,7 +3404,7 @@
       </c>
       <c r="J11" s="45"/>
     </row>
-    <row r="12" spans="1:10" s="46" customFormat="1" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" s="46" customFormat="1" ht="60">
       <c r="A12" s="47" t="s">
         <v>58</v>
       </c>
@@ -3428,7 +3428,7 @@
       </c>
       <c r="J12" s="45"/>
     </row>
-    <row r="13" spans="1:10" s="46" customFormat="1" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" s="46" customFormat="1" ht="123.75" customHeight="1">
       <c r="A13" s="47" t="s">
         <v>60</v>
       </c>
@@ -3452,7 +3452,7 @@
       </c>
       <c r="J13" s="45"/>
     </row>
-    <row r="14" spans="1:10" s="46" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" s="46" customFormat="1" ht="15.75">
       <c r="A14" s="52" t="s">
         <v>62</v>
       </c>
@@ -3470,7 +3470,7 @@
       <c r="I14" s="44"/>
       <c r="J14" s="45"/>
     </row>
-    <row r="15" spans="1:10" s="46" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" s="46" customFormat="1" ht="50.25" customHeight="1">
       <c r="A15" s="47" t="s">
         <v>64</v>
       </c>
@@ -3494,7 +3494,7 @@
       </c>
       <c r="J15" s="45"/>
     </row>
-    <row r="16" spans="1:10" s="46" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" s="46" customFormat="1" ht="15.75">
       <c r="A16" s="52" t="s">
         <v>66</v>
       </c>
@@ -3512,7 +3512,7 @@
       <c r="I16" s="44"/>
       <c r="J16" s="45"/>
     </row>
-    <row r="17" spans="1:12" s="46" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" s="46" customFormat="1" ht="102" customHeight="1">
       <c r="A17" s="47" t="s">
         <v>68</v>
       </c>
@@ -3536,7 +3536,7 @@
       </c>
       <c r="J17" s="45"/>
     </row>
-    <row r="18" spans="1:12" s="46" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" s="46" customFormat="1" ht="122.25" customHeight="1">
       <c r="A18" s="47" t="s">
         <v>70</v>
       </c>
@@ -3560,7 +3560,7 @@
       </c>
       <c r="J18" s="45"/>
     </row>
-    <row r="19" spans="1:12" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" s="46" customFormat="1">
       <c r="A19" s="47" t="s">
         <v>72</v>
       </c>
@@ -3584,7 +3584,7 @@
       </c>
       <c r="J19" s="45"/>
     </row>
-    <row r="20" spans="1:12" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" s="46" customFormat="1">
       <c r="A20" s="47" t="s">
         <v>74</v>
       </c>
@@ -3608,7 +3608,7 @@
       </c>
       <c r="J20" s="45"/>
     </row>
-    <row r="21" spans="1:12" s="46" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" s="46" customFormat="1" ht="30">
       <c r="A21" s="47" t="s">
         <v>76</v>
       </c>
@@ -3632,7 +3632,7 @@
       </c>
       <c r="J21" s="45"/>
     </row>
-    <row r="22" spans="1:12" s="46" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" s="46" customFormat="1" ht="30">
       <c r="A22" s="47" t="s">
         <v>78</v>
       </c>
@@ -3656,7 +3656,7 @@
       </c>
       <c r="J22" s="45"/>
     </row>
-    <row r="23" spans="1:12" s="46" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" s="46" customFormat="1" ht="30">
       <c r="A23" s="47" t="s">
         <v>80</v>
       </c>
@@ -3680,7 +3680,7 @@
       </c>
       <c r="J23" s="45"/>
     </row>
-    <row r="24" spans="1:12" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="15.75">
       <c r="A24" s="52" t="s">
         <v>82</v>
       </c>
@@ -3698,7 +3698,7 @@
       <c r="I24" s="44"/>
       <c r="J24" s="45"/>
     </row>
-    <row r="25" spans="1:12" s="46" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" s="46" customFormat="1" ht="39" customHeight="1">
       <c r="A25" s="47" t="s">
         <v>84</v>
       </c>
@@ -3725,7 +3725,7 @@
       <c r="K25" s="18"/>
       <c r="L25" s="18"/>
     </row>
-    <row r="26" spans="1:12" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="31.5">
       <c r="A26" s="52" t="s">
         <v>86</v>
       </c>
@@ -3743,7 +3743,7 @@
       <c r="I26" s="44"/>
       <c r="J26" s="45"/>
     </row>
-    <row r="27" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="42" customHeight="1">
       <c r="A27" s="47" t="s">
         <v>88</v>
       </c>
@@ -3767,7 +3767,7 @@
       </c>
       <c r="J27" s="45"/>
     </row>
-    <row r="28" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="38.25" customHeight="1">
       <c r="A28" s="47" t="s">
         <v>90</v>
       </c>
@@ -3791,7 +3791,7 @@
       </c>
       <c r="J28" s="45"/>
     </row>
-    <row r="29" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="39" customHeight="1">
       <c r="A29" s="47" t="s">
         <v>92</v>
       </c>
@@ -3815,7 +3815,7 @@
       </c>
       <c r="J29" s="45"/>
     </row>
-    <row r="30" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="39" customHeight="1">
       <c r="A30" s="47" t="s">
         <v>94</v>
       </c>
@@ -3839,7 +3839,7 @@
       </c>
       <c r="J30" s="45"/>
     </row>
-    <row r="31" spans="1:12" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="45">
       <c r="A31" s="47" t="s">
         <v>96</v>
       </c>
@@ -3863,7 +3863,7 @@
       </c>
       <c r="J31" s="45"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12">
       <c r="A32" s="47" t="s">
         <v>98</v>
       </c>
@@ -3887,7 +3887,7 @@
       </c>
       <c r="J32" s="45"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10">
       <c r="A33" s="47" t="s">
         <v>100</v>
       </c>
@@ -3911,7 +3911,7 @@
       </c>
       <c r="J33" s="45"/>
     </row>
-    <row r="34" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="30">
       <c r="A34" s="47" t="s">
         <v>102</v>
       </c>
@@ -3935,7 +3935,7 @@
       </c>
       <c r="J34" s="45"/>
     </row>
-    <row r="35" spans="1:10" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="45">
       <c r="A35" s="47" t="s">
         <v>104</v>
       </c>
@@ -3961,7 +3961,7 @@
       </c>
       <c r="J35" s="46"/>
     </row>
-    <row r="36" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="30" customHeight="1">
       <c r="A36" s="47" t="s">
         <v>106</v>
       </c>
@@ -3985,7 +3985,7 @@
       </c>
       <c r="J36" s="46"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10">
       <c r="A37" s="47" t="s">
         <v>108</v>
       </c>
@@ -4009,7 +4009,7 @@
       </c>
       <c r="J37" s="46"/>
     </row>
-    <row r="38" spans="1:10" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="15.75">
       <c r="A38" s="52" t="s">
         <v>110</v>
       </c>
@@ -4027,7 +4027,7 @@
       <c r="I38" s="44"/>
       <c r="J38" s="45"/>
     </row>
-    <row r="39" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="30" customHeight="1">
       <c r="A39" s="47"/>
       <c r="B39" s="58"/>
       <c r="C39" s="49" t="s">
@@ -4049,7 +4049,7 @@
       </c>
       <c r="J39" s="45"/>
     </row>
-    <row r="40" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="30" customHeight="1">
       <c r="A40" s="47"/>
       <c r="B40" s="58"/>
       <c r="C40" s="49" t="s">
@@ -4069,7 +4069,7 @@
       </c>
       <c r="J40" s="45"/>
     </row>
-    <row r="41" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="30" customHeight="1">
       <c r="A41" s="47"/>
       <c r="B41" s="58"/>
       <c r="C41" s="49" t="s">
@@ -4089,7 +4089,7 @@
       </c>
       <c r="J41" s="45"/>
     </row>
-    <row r="42" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="30" customHeight="1">
       <c r="A42" s="47"/>
       <c r="B42" s="58"/>
       <c r="C42" s="49"/>
@@ -4107,7 +4107,7 @@
       </c>
       <c r="J42" s="45"/>
     </row>
-    <row r="43" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="30" customHeight="1">
       <c r="A43" s="47"/>
       <c r="B43" s="58"/>
       <c r="C43" s="49"/>
@@ -4125,7 +4125,7 @@
       </c>
       <c r="J43" s="45"/>
     </row>
-    <row r="44" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="30" customHeight="1">
       <c r="A44" s="47"/>
       <c r="B44" s="58"/>
       <c r="C44" s="49"/>
@@ -4143,10 +4143,10 @@
       </c>
       <c r="J44" s="45"/>
     </row>
-    <row r="46" spans="1:10" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="68.25" customHeight="1">
       <c r="B46" s="59"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10">
       <c r="B47" s="19" t="s">
         <v>43</v>
       </c>
@@ -4171,24 +4171,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMJ88"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="120" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" style="18" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="18" customWidth="1"/>
     <col min="2" max="2" width="62" style="60" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" style="18" customWidth="1"/>
-    <col min="4" max="5" width="9.33203125" style="18" customWidth="1"/>
-    <col min="6" max="6" width="63.88671875" style="18" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" style="18" customWidth="1"/>
+    <col min="4" max="5" width="9.28515625" style="18" customWidth="1"/>
+    <col min="6" max="6" width="63.85546875" style="18" customWidth="1"/>
     <col min="7" max="8" width="9" style="18" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" style="18" customWidth="1"/>
-    <col min="10" max="1024" width="11.44140625" style="18"/>
+    <col min="9" max="9" width="8.7109375" style="18" customWidth="1"/>
+    <col min="10" max="1024" width="11.42578125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:221" s="62" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:221" s="62" customFormat="1" ht="40.5" customHeight="1">
       <c r="A1" s="89" t="s">
         <v>112</v>
       </c>
@@ -4425,7 +4425,7 @@
       <c r="HL1" s="18"/>
       <c r="HM1" s="18"/>
     </row>
-    <row r="2" spans="1:221" s="46" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:221" s="46" customFormat="1" ht="15.75">
       <c r="A2" s="63"/>
       <c r="B2" s="64" t="s">
         <v>113</v>
@@ -4661,7 +4661,7 @@
       <c r="HL2" s="18"/>
       <c r="HM2" s="18"/>
     </row>
-    <row r="3" spans="1:221" ht="32.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:221" ht="31.5">
       <c r="A3" s="68" t="s">
         <v>114</v>
       </c>
@@ -4676,7 +4676,7 @@
       <c r="H3" s="44"/>
       <c r="I3" s="44"/>
     </row>
-    <row r="4" spans="1:221" s="18" customFormat="1" ht="48.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:221" s="18" customFormat="1" ht="47.25">
       <c r="A4" s="71"/>
       <c r="B4" s="72" t="s">
         <v>115</v>
@@ -4691,7 +4691,7 @@
       <c r="H4" s="44"/>
       <c r="I4" s="44"/>
     </row>
-    <row r="5" spans="1:221" s="46" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:221" s="46" customFormat="1" ht="39" customHeight="1">
       <c r="A5" s="52" t="s">
         <v>116</v>
       </c>
@@ -4926,7 +4926,7 @@
       <c r="HL5" s="18"/>
       <c r="HM5" s="18"/>
     </row>
-    <row r="6" spans="1:221" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:221" s="46" customFormat="1" ht="15">
       <c r="A6" s="47" t="s">
         <v>118</v>
       </c>
@@ -5161,7 +5161,7 @@
       <c r="HL6" s="18"/>
       <c r="HM6" s="18"/>
     </row>
-    <row r="7" spans="1:221" s="46" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:221" s="46" customFormat="1" ht="39" customHeight="1">
       <c r="A7" s="47" t="s">
         <v>120</v>
       </c>
@@ -5396,7 +5396,7 @@
       <c r="HL7" s="18"/>
       <c r="HM7" s="18"/>
     </row>
-    <row r="8" spans="1:221" s="46" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:221" s="46" customFormat="1" ht="39" customHeight="1">
       <c r="A8" s="47" t="s">
         <v>122</v>
       </c>
@@ -5631,7 +5631,7 @@
       <c r="HL8" s="18"/>
       <c r="HM8" s="18"/>
     </row>
-    <row r="9" spans="1:221" s="46" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:221" s="46" customFormat="1" ht="39" customHeight="1">
       <c r="A9" s="47" t="s">
         <v>124</v>
       </c>
@@ -5866,7 +5866,7 @@
       <c r="HL9" s="18"/>
       <c r="HM9" s="18"/>
     </row>
-    <row r="10" spans="1:221" s="46" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:221" s="46" customFormat="1" ht="39" customHeight="1">
       <c r="A10" s="47" t="s">
         <v>126</v>
       </c>
@@ -6101,7 +6101,7 @@
       <c r="HL10" s="18"/>
       <c r="HM10" s="18"/>
     </row>
-    <row r="11" spans="1:221" s="46" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:221" s="46" customFormat="1" ht="68.25" customHeight="1">
       <c r="A11" s="47" t="s">
         <v>128</v>
       </c>
@@ -6336,7 +6336,7 @@
       <c r="HL11" s="18"/>
       <c r="HM11" s="18"/>
     </row>
-    <row r="12" spans="1:221" s="46" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:221" s="46" customFormat="1" ht="39" customHeight="1">
       <c r="A12" s="52" t="s">
         <v>130</v>
       </c>
@@ -6569,7 +6569,7 @@
       <c r="HL12" s="18"/>
       <c r="HM12" s="18"/>
     </row>
-    <row r="13" spans="1:221" s="46" customFormat="1" ht="261" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:221" s="46" customFormat="1" ht="261" customHeight="1">
       <c r="A13" s="47" t="s">
         <v>132</v>
       </c>
@@ -6804,7 +6804,7 @@
       <c r="HL13" s="18"/>
       <c r="HM13" s="18"/>
     </row>
-    <row r="14" spans="1:221" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:221" s="46" customFormat="1" ht="30" customHeight="1">
       <c r="A14" s="52" t="s">
         <v>134</v>
       </c>
@@ -7033,7 +7033,7 @@
       <c r="HL14" s="18"/>
       <c r="HM14" s="18"/>
     </row>
-    <row r="15" spans="1:221" s="46" customFormat="1" ht="261" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:221" s="46" customFormat="1" ht="261" customHeight="1">
       <c r="A15" s="47" t="s">
         <v>136</v>
       </c>
@@ -7268,7 +7268,7 @@
       <c r="HL15" s="18"/>
       <c r="HM15" s="18"/>
     </row>
-    <row r="16" spans="1:221" s="46" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:221" s="46" customFormat="1" ht="39" customHeight="1">
       <c r="A16" s="52" t="s">
         <v>138</v>
       </c>
@@ -7497,7 +7497,7 @@
       <c r="HL16" s="18"/>
       <c r="HM16" s="18"/>
     </row>
-    <row r="17" spans="1:221" s="46" customFormat="1" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:221" s="46" customFormat="1" ht="139.5" customHeight="1">
       <c r="A17" s="47" t="s">
         <v>140</v>
       </c>
@@ -7734,7 +7734,7 @@
       <c r="HL17" s="18"/>
       <c r="HM17" s="18"/>
     </row>
-    <row r="18" spans="1:221" s="46" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:221" s="46" customFormat="1" ht="39" customHeight="1">
       <c r="A18" s="52" t="s">
         <v>142</v>
       </c>
@@ -7963,7 +7963,7 @@
       <c r="HL18" s="18"/>
       <c r="HM18" s="18"/>
     </row>
-    <row r="19" spans="1:221" s="46" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:221" s="46" customFormat="1" ht="135" customHeight="1">
       <c r="A19" s="47" t="s">
         <v>144</v>
       </c>
@@ -8200,7 +8200,7 @@
       <c r="HL19" s="18"/>
       <c r="HM19" s="18"/>
     </row>
-    <row r="20" spans="1:221" s="46" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:221" s="46" customFormat="1" ht="135" customHeight="1">
       <c r="A20" s="47" t="s">
         <v>146</v>
       </c>
@@ -8437,7 +8437,7 @@
       <c r="HL20" s="18"/>
       <c r="HM20" s="18"/>
     </row>
-    <row r="21" spans="1:221" s="46" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:221" s="46" customFormat="1" ht="135" customHeight="1">
       <c r="A21" s="47" t="s">
         <v>148</v>
       </c>
@@ -8674,7 +8674,7 @@
       <c r="HL21" s="18"/>
       <c r="HM21" s="18"/>
     </row>
-    <row r="22" spans="1:221" s="46" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:221" s="46" customFormat="1" ht="129" customHeight="1">
       <c r="A22" s="47" t="s">
         <v>150</v>
       </c>
@@ -8909,7 +8909,7 @@
       <c r="HL22" s="18"/>
       <c r="HM22" s="18"/>
     </row>
-    <row r="23" spans="1:221" s="46" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:221" s="46" customFormat="1" ht="39" customHeight="1">
       <c r="A23" s="52" t="s">
         <v>152</v>
       </c>
@@ -9138,7 +9138,7 @@
       <c r="HL23" s="18"/>
       <c r="HM23" s="18"/>
     </row>
-    <row r="24" spans="1:221" s="46" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:221" s="46" customFormat="1" ht="39" customHeight="1">
       <c r="A24" s="47" t="s">
         <v>154</v>
       </c>
@@ -9373,7 +9373,7 @@
       <c r="HL24" s="18"/>
       <c r="HM24" s="18"/>
     </row>
-    <row r="25" spans="1:221" s="46" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:221" s="46" customFormat="1" ht="75.75" customHeight="1">
       <c r="A25" s="47" t="s">
         <v>156</v>
       </c>
@@ -9608,7 +9608,7 @@
       <c r="HL25" s="18"/>
       <c r="HM25" s="18"/>
     </row>
-    <row r="26" spans="1:221" s="46" customFormat="1" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:221" s="46" customFormat="1" ht="139.5" customHeight="1">
       <c r="A26" s="47" t="s">
         <v>158</v>
       </c>
@@ -9843,187 +9843,187 @@
       <c r="HL26" s="18"/>
       <c r="HM26" s="18"/>
     </row>
-    <row r="28" spans="1:221" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:221" s="18" customFormat="1">
       <c r="B28" s="80"/>
     </row>
-    <row r="29" spans="1:221" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:221" s="18" customFormat="1">
       <c r="B29" s="80"/>
     </row>
-    <row r="30" spans="1:221" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:221" s="18" customFormat="1">
       <c r="B30" s="80"/>
     </row>
-    <row r="31" spans="1:221" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:221" s="18" customFormat="1">
       <c r="B31" s="80"/>
     </row>
-    <row r="32" spans="1:221" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:221" s="18" customFormat="1">
       <c r="B32" s="80"/>
     </row>
-    <row r="33" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" s="18" customFormat="1">
       <c r="B33" s="80"/>
     </row>
-    <row r="34" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" s="18" customFormat="1">
       <c r="B34" s="80"/>
     </row>
-    <row r="35" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" s="18" customFormat="1">
       <c r="B35" s="80"/>
     </row>
-    <row r="36" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" s="18" customFormat="1">
       <c r="B36" s="80"/>
     </row>
-    <row r="37" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" s="18" customFormat="1">
       <c r="B37" s="80"/>
     </row>
-    <row r="38" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2" s="18" customFormat="1">
       <c r="B38" s="80"/>
     </row>
-    <row r="39" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2" s="18" customFormat="1">
       <c r="B39" s="80"/>
     </row>
-    <row r="40" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2" s="18" customFormat="1">
       <c r="B40" s="80"/>
     </row>
-    <row r="41" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2" s="18" customFormat="1">
       <c r="B41" s="80"/>
     </row>
-    <row r="42" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2" s="18" customFormat="1">
       <c r="B42" s="80"/>
     </row>
-    <row r="43" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2" s="18" customFormat="1">
       <c r="B43" s="80"/>
     </row>
-    <row r="44" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:2" s="18" customFormat="1">
       <c r="B44" s="80"/>
     </row>
-    <row r="45" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:2" s="18" customFormat="1">
       <c r="B45" s="80"/>
     </row>
-    <row r="46" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:2" s="18" customFormat="1">
       <c r="B46" s="80"/>
     </row>
-    <row r="47" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:2" s="18" customFormat="1">
       <c r="B47" s="80"/>
     </row>
-    <row r="48" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:2" s="18" customFormat="1">
       <c r="B48" s="80"/>
     </row>
-    <row r="49" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" s="18" customFormat="1">
       <c r="B49" s="80"/>
     </row>
-    <row r="50" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" s="18" customFormat="1">
       <c r="B50" s="80"/>
     </row>
-    <row r="51" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" s="18" customFormat="1">
       <c r="B51" s="80"/>
     </row>
-    <row r="52" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" s="18" customFormat="1">
       <c r="B52" s="80"/>
     </row>
-    <row r="53" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" s="18" customFormat="1">
       <c r="B53" s="80"/>
     </row>
-    <row r="54" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" s="18" customFormat="1">
       <c r="B54" s="80"/>
     </row>
-    <row r="55" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" s="18" customFormat="1">
       <c r="B55" s="80"/>
     </row>
-    <row r="56" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" s="18" customFormat="1">
       <c r="B56" s="80"/>
     </row>
-    <row r="57" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" s="18" customFormat="1">
       <c r="B57" s="80"/>
     </row>
-    <row r="58" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2" s="18" customFormat="1">
       <c r="B58" s="80"/>
     </row>
-    <row r="59" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2" s="18" customFormat="1">
       <c r="B59" s="80"/>
     </row>
-    <row r="60" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2" s="18" customFormat="1">
       <c r="B60" s="80"/>
     </row>
-    <row r="61" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:2" s="18" customFormat="1">
       <c r="B61" s="80"/>
     </row>
-    <row r="62" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:2" s="18" customFormat="1">
       <c r="B62" s="80"/>
     </row>
-    <row r="63" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:2" s="18" customFormat="1">
       <c r="B63" s="80"/>
     </row>
-    <row r="64" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:2" s="18" customFormat="1">
       <c r="B64" s="80"/>
     </row>
-    <row r="65" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" s="18" customFormat="1">
       <c r="B65" s="80"/>
     </row>
-    <row r="66" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" s="18" customFormat="1">
       <c r="B66" s="80"/>
     </row>
-    <row r="67" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" s="18" customFormat="1">
       <c r="B67" s="80"/>
     </row>
-    <row r="68" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2" s="18" customFormat="1">
       <c r="B68" s="80"/>
     </row>
-    <row r="69" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2" s="18" customFormat="1">
       <c r="B69" s="80"/>
     </row>
-    <row r="70" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2" s="18" customFormat="1">
       <c r="B70" s="80"/>
     </row>
-    <row r="71" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2" s="18" customFormat="1">
       <c r="B71" s="80"/>
     </row>
-    <row r="72" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2" s="18" customFormat="1">
       <c r="B72" s="80"/>
     </row>
-    <row r="73" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2" s="18" customFormat="1">
       <c r="B73" s="80"/>
     </row>
-    <row r="74" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2" s="18" customFormat="1">
       <c r="B74" s="80"/>
     </row>
-    <row r="75" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2" s="18" customFormat="1">
       <c r="B75" s="80"/>
     </row>
-    <row r="76" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2" s="18" customFormat="1">
       <c r="B76" s="80"/>
     </row>
-    <row r="77" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2" s="18" customFormat="1">
       <c r="B77" s="80"/>
     </row>
-    <row r="78" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2" s="18" customFormat="1">
       <c r="B78" s="80"/>
     </row>
-    <row r="79" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2" s="18" customFormat="1">
       <c r="B79" s="80"/>
     </row>
-    <row r="80" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2" s="18" customFormat="1">
       <c r="B80" s="80"/>
     </row>
-    <row r="81" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" s="18" customFormat="1">
       <c r="B81" s="80"/>
     </row>
-    <row r="82" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" s="18" customFormat="1">
       <c r="B82" s="80"/>
     </row>
-    <row r="83" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2" s="18" customFormat="1">
       <c r="B83" s="80"/>
     </row>
-    <row r="84" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2" s="18" customFormat="1">
       <c r="B84" s="80"/>
     </row>
-    <row r="85" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" s="18" customFormat="1">
       <c r="B85" s="80"/>
     </row>
-    <row r="86" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2" s="18" customFormat="1">
       <c r="B86" s="80"/>
     </row>
-    <row r="87" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2" s="18" customFormat="1">
       <c r="B87" s="80"/>
     </row>
-    <row r="88" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2" s="18" customFormat="1">
       <c r="B88" s="80"/>
     </row>
   </sheetData>
@@ -10042,6 +10042,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="71a6b02d-4aa2-4512-a7c9-cad577f722e6" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0261c21e-522c-4892-ba93-9084ef6e7047">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100A81D1A6AE5A9A545A83026C46B0D8771" ma:contentTypeVersion="13" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="137d3e3b0672ca5ecc8b82339aa073d7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0261c21e-522c-4892-ba93-9084ef6e7047" xmlns:ns3="71a6b02d-4aa2-4512-a7c9-cad577f722e6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d05e3ad70e94ee0accb244297a63e58f" ns2:_="" ns3:_="">
     <xsd:import namespace="0261c21e-522c-4892-ba93-9084ef6e7047"/>
@@ -10264,27 +10284,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03BA9C1F-ED5F-4E93-AB3E-D68F3194F030}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="71a6b02d-4aa2-4512-a7c9-cad577f722e6"/>
+    <ds:schemaRef ds:uri="0261c21e-522c-4892-ba93-9084ef6e7047"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="71a6b02d-4aa2-4512-a7c9-cad577f722e6" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0261c21e-522c-4892-ba93-9084ef6e7047">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA2BEC92-F9AD-465B-A07E-4E9088069E96}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D01A3DCD-6D5F-440F-993F-A8C7ADCE70A7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10301,23 +10320,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA2BEC92-F9AD-465B-A07E-4E9088069E96}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03BA9C1F-ED5F-4E93-AB3E-D68F3194F030}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="71a6b02d-4aa2-4512-a7c9-cad577f722e6"/>
-    <ds:schemaRef ds:uri="0261c21e-522c-4892-ba93-9084ef6e7047"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>